--- a/municipal/soflis meurneoba/ეკო_აქტ/იმერეთი/საჩხერის მუნიციპალიტეტი.xlsx
+++ b/municipal/soflis meurneoba/ეკო_აქტ/იმერეთი/საჩხერის მუნიციპალიტეტი.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asalukvadze\Desktop\თიკოს ბავშვები\ეკონომიკურად აქტიური ბიზნეს სუბიექტების რაოდენობა (მოსახლეობის 1 000 კაცზე)\იმერეთი\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D4A26-DCDE-4FB4-9B39-30BC393D56B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="75" windowWidth="18825" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="საჩხერის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -25,22 +19,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ეკონომიკურად აქტიური ბიზნეს სუბიექტები (1000 კაცზე)</t>
+    <t>(2014 წლის აღწერის შედეგებით)</t>
   </si>
   <si>
-    <t>ეკონომიკურად აქტიური ბიზნეს სუბიექტების რაოდენობა (მოსახლეობის 1 000 კაცზე) საჩხერის მუნიციპალიტეტში</t>
+    <t>სასოფლო-სამეურნეო დანიშნულების მიწის ფართობის წილი</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>: ზოგიერთ შემთხვევაში უმნიშვნელო განსხვავება ჯამურ შედეგსა და შესაკრებთა ჯამს შორის აიხსნება მონაცემთა დამრგვალებით.</t>
+    </r>
+  </si>
+  <si>
+    <t>სასოფლო-სამეურნეო დანიშნულების მიწის ფართობის წილი საჩხერის მუნიციპალიტეტის მთელ ფართობში კვ.კმ-ზე</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,11 +76,36 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -82,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,43 +137,53 @@
       <left/>
       <right/>
       <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,100 +460,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2015</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2021</v>
+      <c r="B4" s="7">
+        <v>8.1535458685751472</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
+    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>16.334851212538389</v>
-      </c>
-      <c r="C3" s="9">
-        <v>18.768669539242381</v>
-      </c>
-      <c r="D3" s="9">
-        <v>19.258982634906239</v>
-      </c>
-      <c r="E3" s="9">
-        <v>33.661873215920721</v>
-      </c>
-      <c r="F3" s="9">
-        <v>35.903167766206856</v>
-      </c>
-      <c r="G3" s="9">
-        <v>42.685613571271205</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44.047452896022328</v>
-      </c>
-      <c r="I3" s="9">
-        <v>45.18764360479959</v>
-      </c>
-      <c r="J3" s="9">
-        <v>45.110192837465569</v>
-      </c>
-      <c r="K3" s="9">
-        <v>51.599284646281035</v>
-      </c>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/municipal/soflis meurneoba/ეკო_აქტ/იმერეთი/საჩხერის მუნიციპალიტეტი.xlsx
+++ b/municipal/soflis meurneoba/ეკო_აქტ/იმერეთი/საჩხერის მუნიციპალიტეტი.xlsx
@@ -48,7 +48,7 @@
     </r>
   </si>
   <si>
-    <t>სასოფლო-სამეურნეო დანიშნულების მიწის ფართობის წილი საჩხერის მუნიციპალიტეტის მთელ ფართობში კვ.კმ-ზე</t>
+    <t>სასოფლო-სამეურნეო დანიშნულების მიწის ფართობის წილი (%) საჩხერის მუნიციპალიტეტის მთელ ფართობში</t>
   </si>
 </sst>
 </file>
@@ -125,20 +125,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -160,15 +151,12 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -179,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,46 +452,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="60.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>8.1535458685751472</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
